--- a/Team-Data/2008-09/4-26-2008-09.xlsx
+++ b/Team-Data/2008-09/4-26-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-26-2008-09</t>
+          <t>2009-04-26</t>
         </is>
       </c>
     </row>
@@ -848,25 +915,25 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E3" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F3" t="n">
         <v>20</v>
       </c>
       <c r="G3" t="n">
-        <v>0.753</v>
+        <v>0.756</v>
       </c>
       <c r="H3" t="n">
         <v>48.5</v>
       </c>
       <c r="I3" t="n">
-        <v>37.6</v>
+        <v>37.5</v>
       </c>
       <c r="J3" t="n">
-        <v>77.3</v>
+        <v>77.2</v>
       </c>
       <c r="K3" t="n">
         <v>0.486</v>
@@ -875,58 +942,58 @@
         <v>6.6</v>
       </c>
       <c r="M3" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="N3" t="n">
-        <v>0.399</v>
+        <v>0.397</v>
       </c>
       <c r="O3" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="P3" t="n">
-        <v>25.2</v>
+        <v>25.3</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.767</v>
+        <v>0.765</v>
       </c>
       <c r="R3" t="n">
         <v>10.6</v>
       </c>
       <c r="S3" t="n">
-        <v>31.6</v>
+        <v>31.5</v>
       </c>
       <c r="T3" t="n">
-        <v>42.2</v>
+        <v>42.1</v>
       </c>
       <c r="U3" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="V3" t="n">
         <v>15.6</v>
       </c>
       <c r="W3" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X3" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Z3" t="n">
         <v>23.1</v>
       </c>
       <c r="AA3" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="AB3" t="n">
-        <v>101</v>
+        <v>100.9</v>
       </c>
       <c r="AC3" t="n">
         <v>7.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="AE3" t="n">
         <v>3</v>
@@ -962,46 +1029,46 @@
         <v>12</v>
       </c>
       <c r="AP3" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AQ3" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AR3" t="n">
         <v>21</v>
       </c>
       <c r="AS3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AU3" t="n">
         <v>4</v>
       </c>
       <c r="AV3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AW3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY3" t="n">
         <v>13</v>
       </c>
       <c r="AZ3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BA3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BC3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-26-2008-09</t>
+          <t>2009-04-26</t>
         </is>
       </c>
     </row>
@@ -1120,7 +1187,7 @@
         <v>19</v>
       </c>
       <c r="AH4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI4" t="n">
         <v>29</v>
@@ -1150,7 +1217,7 @@
         <v>27</v>
       </c>
       <c r="AR4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AS4" t="n">
         <v>25</v>
@@ -1162,7 +1229,7 @@
         <v>10</v>
       </c>
       <c r="AV4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AW4" t="n">
         <v>19</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-26-2008-09</t>
+          <t>2009-04-26</t>
         </is>
       </c>
     </row>
@@ -1212,28 +1279,28 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E5" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F5" t="n">
         <v>41</v>
       </c>
       <c r="G5" t="n">
-        <v>0.494</v>
+        <v>0.5</v>
       </c>
       <c r="H5" t="n">
         <v>48.6</v>
       </c>
       <c r="I5" t="n">
-        <v>38.2</v>
+        <v>38.1</v>
       </c>
       <c r="J5" t="n">
-        <v>83.7</v>
+        <v>83.5</v>
       </c>
       <c r="K5" t="n">
-        <v>0.456</v>
+        <v>0.457</v>
       </c>
       <c r="L5" t="n">
         <v>6</v>
@@ -1245,13 +1312,13 @@
         <v>0.381</v>
       </c>
       <c r="O5" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="P5" t="n">
-        <v>24.8</v>
+        <v>25</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.797</v>
+        <v>0.796</v>
       </c>
       <c r="R5" t="n">
         <v>11.8</v>
@@ -1263,7 +1330,7 @@
         <v>42.1</v>
       </c>
       <c r="U5" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="V5" t="n">
         <v>14.5</v>
@@ -1278,40 +1345,40 @@
         <v>5.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AB5" t="n">
-        <v>102.1</v>
+        <v>102.2</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="AD5" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="AE5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF5" t="n">
         <v>15</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH5" t="n">
         <v>2</v>
       </c>
       <c r="AI5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ5" t="n">
         <v>5</v>
       </c>
       <c r="AK5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL5" t="n">
         <v>22</v>
@@ -1323,7 +1390,7 @@
         <v>6</v>
       </c>
       <c r="AO5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP5" t="n">
         <v>14</v>
@@ -1344,10 +1411,10 @@
         <v>13</v>
       </c>
       <c r="AV5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX5" t="n">
         <v>4</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-26-2008-09</t>
+          <t>2009-04-26</t>
         </is>
       </c>
     </row>
@@ -1394,43 +1461,43 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E6" t="n">
         <v>66</v>
       </c>
       <c r="F6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.805</v>
       </c>
       <c r="H6" t="n">
         <v>48.2</v>
       </c>
       <c r="I6" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="J6" t="n">
-        <v>78.8</v>
+        <v>78.7</v>
       </c>
       <c r="K6" t="n">
-        <v>0.469</v>
+        <v>0.468</v>
       </c>
       <c r="L6" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="M6" t="n">
         <v>20.4</v>
       </c>
       <c r="N6" t="n">
-        <v>0.395</v>
+        <v>0.393</v>
       </c>
       <c r="O6" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="P6" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="Q6" t="n">
         <v>0.757</v>
@@ -1448,7 +1515,7 @@
         <v>20.3</v>
       </c>
       <c r="V6" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="W6" t="n">
         <v>7.2</v>
@@ -1457,22 +1524,22 @@
         <v>5.3</v>
       </c>
       <c r="Y6" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AB6" t="n">
-        <v>100.5</v>
+        <v>100.3</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.1</v>
+        <v>8.9</v>
       </c>
       <c r="AD6" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="AE6" t="n">
         <v>1</v>
@@ -1505,7 +1572,7 @@
         <v>2</v>
       </c>
       <c r="AO6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP6" t="n">
         <v>15</v>
@@ -1526,16 +1593,16 @@
         <v>20</v>
       </c>
       <c r="AV6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX6" t="n">
         <v>7</v>
       </c>
       <c r="AY6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ6" t="n">
         <v>9</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-26-2008-09</t>
+          <t>2009-04-26</t>
         </is>
       </c>
     </row>
@@ -1669,7 +1736,7 @@
         <v>14</v>
       </c>
       <c r="AI7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ7" t="n">
         <v>6</v>
@@ -1708,7 +1775,7 @@
         <v>8</v>
       </c>
       <c r="AV7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW7" t="n">
         <v>17</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-26-2008-09</t>
+          <t>2009-04-26</t>
         </is>
       </c>
     </row>
@@ -1842,10 +1909,10 @@
         <v>5</v>
       </c>
       <c r="AF8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH8" t="n">
         <v>27</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-26-2008-09</t>
+          <t>2009-04-26</t>
         </is>
       </c>
     </row>
@@ -2081,7 +2148,7 @@
         <v>19</v>
       </c>
       <c r="AY9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ9" t="n">
         <v>19</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-26-2008-09</t>
+          <t>2009-04-26</t>
         </is>
       </c>
     </row>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-26-2008-09</t>
+          <t>2009-04-26</t>
         </is>
       </c>
     </row>
@@ -2415,7 +2482,7 @@
         <v>10</v>
       </c>
       <c r="AO11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP11" t="n">
         <v>21</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-26-2008-09</t>
+          <t>2009-04-26</t>
         </is>
       </c>
     </row>
@@ -2576,7 +2643,7 @@
         <v>18</v>
       </c>
       <c r="AH12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI12" t="n">
         <v>4</v>
@@ -2597,7 +2664,7 @@
         <v>8</v>
       </c>
       <c r="AO12" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP12" t="n">
         <v>23</v>
@@ -2618,7 +2685,7 @@
         <v>9</v>
       </c>
       <c r="AV12" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW12" t="n">
         <v>20</v>
@@ -2630,7 +2697,7 @@
         <v>26</v>
       </c>
       <c r="AZ12" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BA12" t="n">
         <v>15</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-26-2008-09</t>
+          <t>2009-04-26</t>
         </is>
       </c>
     </row>
@@ -2758,7 +2825,7 @@
         <v>28</v>
       </c>
       <c r="AH13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI13" t="n">
         <v>25</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-26-2008-09</t>
+          <t>2009-04-26</t>
         </is>
       </c>
     </row>
@@ -2850,25 +2917,25 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E14" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F14" t="n">
         <v>17</v>
       </c>
       <c r="G14" t="n">
-        <v>0.79</v>
+        <v>0.793</v>
       </c>
       <c r="H14" t="n">
         <v>48.2</v>
       </c>
       <c r="I14" t="n">
-        <v>40.4</v>
+        <v>40.3</v>
       </c>
       <c r="J14" t="n">
-        <v>85.2</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="K14" t="n">
         <v>0.474</v>
@@ -2877,25 +2944,25 @@
         <v>6.7</v>
       </c>
       <c r="M14" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="N14" t="n">
-        <v>0.359</v>
+        <v>0.361</v>
       </c>
       <c r="O14" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="P14" t="n">
         <v>25.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.769</v>
+        <v>0.77</v>
       </c>
       <c r="R14" t="n">
         <v>12.4</v>
       </c>
       <c r="S14" t="n">
-        <v>31.4</v>
+        <v>31.5</v>
       </c>
       <c r="T14" t="n">
         <v>43.9</v>
@@ -2904,7 +2971,7 @@
         <v>23.3</v>
       </c>
       <c r="V14" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="W14" t="n">
         <v>8.800000000000001</v>
@@ -2916,19 +2983,19 @@
         <v>4.8</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="AA14" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="AB14" t="n">
-        <v>107.1</v>
+        <v>106.9</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="AD14" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="AE14" t="n">
         <v>2</v>
@@ -2958,10 +3025,10 @@
         <v>15</v>
       </c>
       <c r="AN14" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP14" t="n">
         <v>8</v>
@@ -2973,7 +3040,7 @@
         <v>3</v>
       </c>
       <c r="AS14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT14" t="n">
         <v>1</v>
@@ -2988,22 +3055,22 @@
         <v>2</v>
       </c>
       <c r="AX14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ14" t="n">
         <v>17</v>
       </c>
       <c r="BA14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB14" t="n">
         <v>3</v>
       </c>
       <c r="BC14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-26-2008-09</t>
+          <t>2009-04-26</t>
         </is>
       </c>
     </row>
@@ -3140,7 +3207,7 @@
         <v>27</v>
       </c>
       <c r="AN15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO15" t="n">
         <v>13</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-26-2008-09</t>
+          <t>2009-04-26</t>
         </is>
       </c>
     </row>
@@ -3313,7 +3380,7 @@
         <v>15</v>
       </c>
       <c r="AK16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL16" t="n">
         <v>11</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-26-2008-09</t>
+          <t>2009-04-26</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E17" t="n">
         <v>34</v>
       </c>
       <c r="F17" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G17" t="n">
-        <v>0.42</v>
+        <v>0.415</v>
       </c>
       <c r="H17" t="n">
         <v>48.2</v>
@@ -3426,34 +3493,34 @@
         <v>17.2</v>
       </c>
       <c r="N17" t="n">
-        <v>0.362</v>
+        <v>0.363</v>
       </c>
       <c r="O17" t="n">
         <v>19.7</v>
       </c>
       <c r="P17" t="n">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.781</v>
+        <v>0.78</v>
       </c>
       <c r="R17" t="n">
         <v>11.9</v>
       </c>
       <c r="S17" t="n">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="T17" t="n">
-        <v>40.8</v>
+        <v>40.7</v>
       </c>
       <c r="U17" t="n">
         <v>22</v>
       </c>
       <c r="V17" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="W17" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X17" t="n">
         <v>3.8</v>
@@ -3462,7 +3529,7 @@
         <v>4.6</v>
       </c>
       <c r="Z17" t="n">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="AA17" t="n">
         <v>22.5</v>
@@ -3471,16 +3538,16 @@
         <v>99.3</v>
       </c>
       <c r="AC17" t="n">
-        <v>-0.9</v>
+        <v>-1.1</v>
       </c>
       <c r="AD17" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="AE17" t="n">
         <v>20</v>
       </c>
       <c r="AF17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG17" t="n">
         <v>20</v>
@@ -3495,7 +3562,7 @@
         <v>8</v>
       </c>
       <c r="AK17" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL17" t="n">
         <v>21</v>
@@ -3510,7 +3577,7 @@
         <v>9</v>
       </c>
       <c r="AP17" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AQ17" t="n">
         <v>11</v>
@@ -3531,7 +3598,7 @@
         <v>14</v>
       </c>
       <c r="AW17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX17" t="n">
         <v>29</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-26-2008-09</t>
+          <t>2009-04-26</t>
         </is>
       </c>
     </row>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-26-2008-09</t>
+          <t>2009-04-26</t>
         </is>
       </c>
     </row>
@@ -3844,13 +3911,13 @@
         <v>20</v>
       </c>
       <c r="AF19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI19" t="n">
         <v>27</v>
@@ -3898,10 +3965,10 @@
         <v>24</v>
       </c>
       <c r="AX19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY19" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ19" t="n">
         <v>24</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-26-2008-09</t>
+          <t>2009-04-26</t>
         </is>
       </c>
     </row>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-26-2008-09</t>
+          <t>2009-04-26</t>
         </is>
       </c>
     </row>
@@ -4223,7 +4290,7 @@
         <v>1</v>
       </c>
       <c r="AK21" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL21" t="n">
         <v>1</v>
@@ -4232,7 +4299,7 @@
         <v>1</v>
       </c>
       <c r="AN21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO21" t="n">
         <v>24</v>
@@ -4250,7 +4317,7 @@
         <v>9</v>
       </c>
       <c r="AT21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AU21" t="n">
         <v>11</v>
@@ -4259,7 +4326,7 @@
         <v>18</v>
       </c>
       <c r="AW21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
@@ -4268,7 +4335,7 @@
         <v>24</v>
       </c>
       <c r="AZ21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA21" t="n">
         <v>29</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-26-2008-09</t>
+          <t>2009-04-26</t>
         </is>
       </c>
     </row>
@@ -4417,7 +4484,7 @@
         <v>28</v>
       </c>
       <c r="AO22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP22" t="n">
         <v>12</v>
@@ -4435,7 +4502,7 @@
         <v>6</v>
       </c>
       <c r="AU22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV22" t="n">
         <v>30</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-26-2008-09</t>
+          <t>2009-04-26</t>
         </is>
       </c>
     </row>
@@ -4587,7 +4654,7 @@
         <v>26</v>
       </c>
       <c r="AK23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL23" t="n">
         <v>2</v>
@@ -4599,7 +4666,7 @@
         <v>7</v>
       </c>
       <c r="AO23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP23" t="n">
         <v>4</v>
@@ -4638,7 +4705,7 @@
         <v>6</v>
       </c>
       <c r="BB23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BC23" t="n">
         <v>4</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-26-2008-09</t>
+          <t>2009-04-26</t>
         </is>
       </c>
     </row>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-26-2008-09</t>
+          <t>2009-04-26</t>
         </is>
       </c>
     </row>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-26-2008-09</t>
+          <t>2009-04-26</t>
         </is>
       </c>
     </row>
@@ -5034,46 +5101,46 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E26" t="n">
         <v>54</v>
       </c>
       <c r="F26" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G26" t="n">
-        <v>0.667</v>
+        <v>0.659</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="J26" t="n">
-        <v>79.09999999999999</v>
+        <v>79.2</v>
       </c>
       <c r="K26" t="n">
-        <v>0.466</v>
+        <v>0.465</v>
       </c>
       <c r="L26" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="M26" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="N26" t="n">
         <v>0.383</v>
       </c>
       <c r="O26" t="n">
-        <v>18.7</v>
+        <v>18.5</v>
       </c>
       <c r="P26" t="n">
-        <v>24.4</v>
+        <v>24.2</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.766</v>
+        <v>0.765</v>
       </c>
       <c r="R26" t="n">
         <v>12.9</v>
@@ -5103,16 +5170,16 @@
         <v>20.4</v>
       </c>
       <c r="AA26" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="AB26" t="n">
-        <v>99.7</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="AC26" t="n">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
       <c r="AD26" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="AE26" t="n">
         <v>5</v>
@@ -5133,7 +5200,7 @@
         <v>23</v>
       </c>
       <c r="AK26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL26" t="n">
         <v>9</v>
@@ -5145,13 +5212,13 @@
         <v>4</v>
       </c>
       <c r="AO26" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AP26" t="n">
         <v>16</v>
       </c>
       <c r="AQ26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR26" t="n">
         <v>1</v>
@@ -5160,7 +5227,7 @@
         <v>27</v>
       </c>
       <c r="AT26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AU26" t="n">
         <v>19</v>
@@ -5178,10 +5245,10 @@
         <v>3</v>
       </c>
       <c r="AZ26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB26" t="n">
         <v>14</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-26-2008-09</t>
+          <t>2009-04-26</t>
         </is>
       </c>
     </row>
@@ -5363,7 +5430,7 @@
         <v>29</v>
       </c>
       <c r="BA27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BB27" t="n">
         <v>12</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-26-2008-09</t>
+          <t>2009-04-26</t>
         </is>
       </c>
     </row>
@@ -5482,10 +5549,10 @@
         <v>5</v>
       </c>
       <c r="AF28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH28" t="n">
         <v>4</v>
@@ -5497,7 +5564,7 @@
         <v>19</v>
       </c>
       <c r="AK28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL28" t="n">
         <v>6</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-26-2008-09</t>
+          <t>2009-04-26</t>
         </is>
       </c>
     </row>
@@ -5718,7 +5785,7 @@
         <v>27</v>
       </c>
       <c r="AX29" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY29" t="n">
         <v>12</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-26-2008-09</t>
+          <t>2009-04-26</t>
         </is>
       </c>
     </row>
@@ -5852,7 +5919,7 @@
         <v>11</v>
       </c>
       <c r="AH30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI30" t="n">
         <v>6</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-26-2008-09</t>
+          <t>2009-04-26</t>
         </is>
       </c>
     </row>
@@ -6061,7 +6128,7 @@
         <v>20</v>
       </c>
       <c r="AQ31" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR31" t="n">
         <v>8</v>
@@ -6079,7 +6146,7 @@
         <v>13</v>
       </c>
       <c r="AW31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX31" t="n">
         <v>23</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-26-2008-09</t>
+          <t>2009-04-26</t>
         </is>
       </c>
     </row>
